--- a/AppTec/practice/TeamA/障害管理表(Aチーム).xlsx
+++ b/AppTec/practice/TeamA/障害管理表(Aチーム).xlsx
@@ -1046,7 +1046,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -1284,7 +1284,9 @@
       <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>44005</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
